--- a/data/trans_bre/BARTHEL_R3-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/BARTHEL_R3-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>20.25531776034299</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10.89559595536616</v>
+        <v>10.89559595536617</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.09600393053555341</v>
@@ -649,7 +649,7 @@
         <v>0.7932358227470467</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.9885465453785856</v>
+        <v>0.9885465453785863</v>
       </c>
     </row>
     <row r="5">
@@ -660,26 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-12.82219850580212</v>
+        <v>-12.40742489560423</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>11.49808805078043</v>
+        <v>10.93226901702133</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.858630216904474</v>
+        <v>-0.0335145914789337</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8562886346034889</v>
-      </c>
-      <c r="G5" s="6" t="inlineStr"/>
+        <v>0.8232308465861466</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="H5" s="6" t="n">
-        <v>0.3264007434980349</v>
+        <v>0.3245927402584847</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.05358175693389304</v>
+        <v>-0.01397847633684669</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.03101921829939593</v>
+        <v>0.02059498210489705</v>
       </c>
     </row>
     <row r="6">
@@ -690,26 +692,26 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.76312314989544</v>
+        <v>13.41059062845901</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>48.90137693149826</v>
+        <v>49.18339381463863</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>39.66208171977598</v>
+        <v>40.17164123724054</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20.48466765644577</v>
+        <v>20.35763351474072</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>4.223464389225541</v>
+        <v>3.769148739710326</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.662953311368809</v>
+        <v>2.459545982279383</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3.556659483872442</v>
+        <v>3.518354608446619</v>
       </c>
     </row>
     <row r="7">
@@ -733,7 +735,7 @@
         <v>21.37613793000236</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19.43104398686596</v>
+        <v>19.43104398686595</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.545654597524037</v>
@@ -756,28 +758,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-4.333252280700211</v>
+        <v>-4.95019610271233</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.986385059326339</v>
+        <v>-1.622975123632912</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9.666424062885515</v>
+        <v>10.80022776658094</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8.787374072762638</v>
+        <v>8.991593584393614</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2896379350362091</v>
+        <v>-0.3408289081729117</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.06396666862092364</v>
+        <v>-0.07582367895400757</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7834819167244359</v>
+        <v>0.7840732213454331</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3443028640921133</v>
+        <v>0.3438393829640115</v>
       </c>
     </row>
     <row r="9">
@@ -788,28 +790,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.37568851184805</v>
+        <v>17.06776546142857</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>29.65581390726334</v>
+        <v>27.65665042510559</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>31.20346253983532</v>
+        <v>32.19577821650095</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>28.18742585013663</v>
+        <v>28.97975216762234</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.797795626775077</v>
+        <v>2.489787516018769</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.295029382209444</v>
+        <v>1.947229764060177</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>8.569728592002431</v>
+        <v>9.082544874596628</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.452301452255377</v>
+        <v>2.751199503792536</v>
       </c>
     </row>
     <row r="10">
@@ -833,7 +835,7 @@
         <v>3.311598618515588</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16.89657090735676</v>
+        <v>16.89657090735677</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.646595073596551</v>
@@ -845,7 +847,7 @@
         <v>0.2560387854498422</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.5572663822620377</v>
+        <v>0.5572663822620383</v>
       </c>
     </row>
     <row r="11">
@@ -856,28 +858,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.964100107906372</v>
+        <v>0.3152929097607384</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.843322195650051</v>
+        <v>-9.02365713853451</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-8.429697707348335</v>
+        <v>-7.942016539365648</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5.736795302948251</v>
+        <v>6.264969357618379</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.01338110826698648</v>
+        <v>-0.148706710398842</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3487715016127972</v>
+        <v>-0.3364384015631601</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4958121204097679</v>
+        <v>-0.489321934806079</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1475896128824878</v>
+        <v>0.173443464717154</v>
       </c>
     </row>
     <row r="12">
@@ -888,28 +890,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>25.5517498620177</v>
+        <v>23.1744572579683</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>21.65889275540584</v>
+        <v>21.65191268910036</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.42671622854486</v>
+        <v>16.15408510413838</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>27.37231976441676</v>
+        <v>28.41268940058871</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>10.40231625656267</v>
+        <v>7.644927436261262</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.931953060088728</v>
+        <v>1.825515172168548</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.930031202946193</v>
+        <v>1.970440753961502</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.173048100073453</v>
+        <v>1.176896716777242</v>
       </c>
     </row>
     <row r="13">
@@ -956,28 +958,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.613683305738825</v>
+        <v>7.1225787710662</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.5859206420233174</v>
+        <v>-1.225342275946476</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.562176197850462</v>
+        <v>-1.962184626261162</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.138693186948999</v>
+        <v>2.682401563888102</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2783003064007276</v>
+        <v>0.3875236253934421</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.03795589808367973</v>
+        <v>-0.06134771680388221</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.09210996140128336</v>
+        <v>-0.06608470552285403</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1332947325932248</v>
+        <v>0.1021281773046246</v>
       </c>
     </row>
     <row r="15">
@@ -988,28 +990,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>30.11634320306242</v>
+        <v>30.13057514496583</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>28.87865717430808</v>
+        <v>28.69024695008652</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>26.01856869746793</v>
+        <v>27.58137366686675</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>20.57613877956474</v>
+        <v>20.13820429200555</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>14.26570450684013</v>
+        <v>14.86823556482848</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.558473270954277</v>
+        <v>2.244814076148463</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.7474958200394</v>
+        <v>2.003465475888427</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.703095717437443</v>
+        <v>1.570491789305913</v>
       </c>
     </row>
     <row r="16">
@@ -1033,7 +1035,7 @@
         <v>31.93702880004527</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5.951801075394836</v>
+        <v>5.951801075394853</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3286370742105439</v>
@@ -1045,7 +1047,7 @@
         <v>3.263879888422198</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2096987381158112</v>
+        <v>0.2096987381158119</v>
       </c>
     </row>
     <row r="17">
@@ -1056,28 +1058,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-15.06991799659654</v>
+        <v>-11.50422886516642</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.380746512002129</v>
+        <v>1.16198143305588</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14.6456555244617</v>
+        <v>15.9314998047505</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-8.060865545654815</v>
+        <v>-7.310301582524918</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4314028980029163</v>
+        <v>-0.3529643865671216</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.009670863142793138</v>
+        <v>0.02394963175483596</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8060326708146541</v>
+        <v>0.7918186904240754</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2115707280940239</v>
+        <v>-0.2092423104950019</v>
       </c>
     </row>
     <row r="18">
@@ -1088,28 +1090,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>26.63413465958515</v>
+        <v>27.75029307929436</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>43.30293163840565</v>
+        <v>42.45729320425932</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>48.6862117305667</v>
+        <v>48.38498289442975</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.63550413905281</v>
+        <v>17.54467224148062</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.170724954101535</v>
+        <v>2.329752753800454</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4.518834610387456</v>
+        <v>4.631915887466366</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>12.4532894005159</v>
+        <v>10.86665566479664</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.9043907731128459</v>
+        <v>0.8333194888810289</v>
       </c>
     </row>
     <row r="19">
@@ -1133,7 +1135,7 @@
         <v>10.21922647280162</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14.48036540015249</v>
+        <v>14.4803654001525</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4457291564747556</v>
@@ -1145,7 +1147,7 @@
         <v>0.3672823018975636</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.3980222161714502</v>
+        <v>0.3980222161714504</v>
       </c>
     </row>
     <row r="20">
@@ -1156,28 +1158,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-6.560907172208021</v>
+        <v>-6.257317098573316</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-15.12950899397002</v>
+        <v>-15.32438590171972</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-7.518557265593608</v>
+        <v>-6.119326199244037</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3.746482970297142</v>
+        <v>3.696063202817155</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3541313709915505</v>
+        <v>-0.3634780245555684</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4192498594889673</v>
+        <v>-0.4384984327494851</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2228583438402993</v>
+        <v>-0.1870833128514829</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.07643468049244326</v>
+        <v>0.09110248225112433</v>
       </c>
     </row>
     <row r="21">
@@ -1188,28 +1190,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>21.16415718633468</v>
+        <v>20.82378359912564</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>17.90871089206927</v>
+        <v>17.05656961365704</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>27.76029119163556</v>
+        <v>27.01347625966221</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>26.19431496055252</v>
+        <v>25.79924782603845</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.791256911648555</v>
+        <v>3.104153927431172</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.141535783168788</v>
+        <v>0.9791764261014138</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.426117634243547</v>
+        <v>1.445180370585855</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.8751226632260853</v>
+        <v>0.8809591306047376</v>
       </c>
     </row>
     <row r="22">
@@ -1233,7 +1235,7 @@
         <v>16.50208737448071</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20.25291904936163</v>
+        <v>20.25291904936162</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4655084749814231</v>
@@ -1245,7 +1247,7 @@
         <v>0.7470734041200663</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.8600269505761954</v>
+        <v>0.8600269505761952</v>
       </c>
     </row>
     <row r="23">
@@ -1256,28 +1258,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.013815583378609</v>
+        <v>-4.526778807922327</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.396075112454176</v>
+        <v>-3.425830221354709</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5.891267057000739</v>
+        <v>4.677561911838905</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>11.73274735947518</v>
+        <v>11.69338214053092</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.3886251905985794</v>
+        <v>-0.3944101678712018</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.1495993489737387</v>
+        <v>-0.1360471050507691</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2168239203551933</v>
+        <v>0.1659680844576119</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.4147903774502957</v>
+        <v>0.41303722580192</v>
       </c>
     </row>
     <row r="24">
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>11.97000375145264</v>
+        <v>11.36956099973098</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>19.44051612752318</v>
+        <v>19.36879287999474</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>28.26621460256736</v>
+        <v>28.07021533428833</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>29.11572607346496</v>
+        <v>29.61248427717462</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>2.721852954420905</v>
+        <v>2.307371297348547</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.439448484486424</v>
+        <v>1.589788993512739</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.789763149092413</v>
+        <v>1.775089020848669</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.575975028500742</v>
+        <v>1.665879537715529</v>
       </c>
     </row>
     <row r="25">
@@ -1356,28 +1358,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-7.843953950260296</v>
+        <v>-8.024271888500881</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>3.162287773597009</v>
+        <v>4.595984447510599</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-3.158319073709982</v>
+        <v>-3.0315619271025</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>11.6404555138561</v>
+        <v>11.45023737141863</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2734940330938493</v>
+        <v>-0.2848638940267569</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1588840244351231</v>
+        <v>0.2633376696279686</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1772847770157587</v>
+        <v>-0.1820561321483977</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.6303931359755641</v>
+        <v>0.611491590654844</v>
       </c>
     </row>
     <row r="27">
@@ -1388,28 +1390,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>13.34598035508188</v>
+        <v>13.33966947435695</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>22.05655307135938</v>
+        <v>22.41280472797714</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>15.19926584426066</v>
+        <v>15.31562270509305</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>25.9882280557398</v>
+        <v>25.87159098199801</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7717041779630337</v>
+        <v>0.7756179365349493</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>3.77009124311781</v>
+        <v>4.177022907826246</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.540270788251417</v>
+        <v>1.512630139060592</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.17923596278692</v>
+        <v>2.207829208690639</v>
       </c>
     </row>
     <row r="28">
@@ -1445,7 +1447,7 @@
         <v>0.8144915277670763</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.763876834795952</v>
+        <v>0.7638768347959518</v>
       </c>
     </row>
     <row r="29">
@@ -1456,28 +1458,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.450306998822487</v>
+        <v>3.241163022013057</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>7.495315625446771</v>
+        <v>7.833415453009043</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>9.279604832742356</v>
+        <v>8.918204349039231</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12.30714628503457</v>
+        <v>12.60193912834694</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.151911289320539</v>
+        <v>0.207879018853291</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3399854401493474</v>
+        <v>0.3838851936076307</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4660626143659354</v>
+        <v>0.4780036333228499</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.527895786590003</v>
+        <v>0.5430983762766953</v>
       </c>
     </row>
     <row r="30">
@@ -1488,28 +1490,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>11.25971492385305</v>
+        <v>11.62938117367496</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>17.27300610323029</v>
+        <v>17.84015707107275</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>18.47583703934092</v>
+        <v>18.76919236132097</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>19.34126897484494</v>
+        <v>19.34745561071107</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.9949857365169597</v>
+        <v>1.061146935349448</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1.07822165799717</v>
+        <v>1.144727759860751</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1.256210535731937</v>
+        <v>1.267413537488586</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1.007316522545616</v>
+        <v>0.9897319955556753</v>
       </c>
     </row>
     <row r="31">
